--- a/Excel RPG/Game/Story.xlsx
+++ b/Excel RPG/Game/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18885" yWindow="5970" windowWidth="10290" windowHeight="6810"/>
+    <workbookView xWindow="18525" yWindow="5970" windowWidth="10290" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,25 @@
     <definedName name="D1CHARNAME">Sheet1!$C$14</definedName>
     <definedName name="D1PROMPT">Sheet1!$C$16</definedName>
     <definedName name="D1TEXT">Sheet1!$C$15</definedName>
+    <definedName name="D2CHARNAME">Sheet1!$C$21</definedName>
+    <definedName name="D2PROMPT">Sheet1!$C$23</definedName>
+    <definedName name="D2TEXT">Sheet1!$C$22</definedName>
+    <definedName name="D3CHARNAME">Sheet1!$C$28</definedName>
+    <definedName name="D3PROMPT">Sheet1!$C$30</definedName>
+    <definedName name="D3TEXT">Sheet1!$C$29</definedName>
     <definedName name="DIAL1ACTIVE">Sheet1!$C$13</definedName>
     <definedName name="DIAL1CURRENT">Sheet1!$C$12</definedName>
     <definedName name="DIAL2ACTIVE">Sheet1!$C$20</definedName>
     <definedName name="DIAL2CURRENT">Sheet1!$C$19</definedName>
+    <definedName name="DIAL3ACTIVE">Sheet1!$C$27</definedName>
+    <definedName name="DIAL3CURRENT">Sheet1!$C$26</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>[INIT]</t>
   </si>
@@ -64,14 +72,83 @@
     <t>DIALOGUE 2</t>
   </si>
   <si>
-    <t>You were trying to cross the border right?</t>
+    <t>You were trying to cross the border, right?</t>
+  </si>
+  <si>
+    <t>DIALOGUE 3</t>
+  </si>
+  <si>
+    <t>Theawohnm</t>
+  </si>
+  <si>
+    <t>/EVENT/</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>SUBSTITUTE</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +194,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +223,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -196,7 +285,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -204,8 +293,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="6"/>
@@ -213,11 +303,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
@@ -258,8 +352,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -275,12 +369,13 @@
     </sheetNames>
     <definedNames>
       <definedName name="In" refersTo="='Sheet1'!$A$2"/>
+      <definedName name="INPCHANGED" refersTo="='Sheet1'!$E$7"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="A2" t="str">
-            <v>b</v>
+          <cell r="A2">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
@@ -583,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C23"/>
+  <dimension ref="A10:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="6" t="b">
-        <f ca="1">IF(AND(DIAL2CURRENT,[2]Sheet1!$E$7,NOT(DIAL1ACTIVE)),TRUE,FALSE)</f>
+        <f ca="1">IF(AND(DIAL2CURRENT,[2]!INPCHANGED,NOT(DIAL1ACTIVE)),TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -712,6 +807,282 @@
       <c r="C23" s="5" t="str">
         <f ca="1">IF(DIAL2CURRENT,B23,"")</f>
         <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6" t="b">
+        <f ca="1">IFERROR(IF(AND([1]!NORESTART,OR(DIAL3CURRENT,DIAL2ACTIVE),NOT(DIAL3ACTIVE)),TRUE,FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="b">
+        <f ca="1">IF(AND(DIAL3CURRENT,[2]!INPCHANGED,NOT(DIAL2ACTIVE)),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5" t="str">
+        <f ca="1">IF(DIAL3CURRENT,B28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>"Oh, right, I forgot to introduce myself. My name's "&amp;B28&amp;", what’s yours?"</f>
+        <v>Oh, right, I forgot to introduce myself. My name's Theawohnm, what’s yours?</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <f ca="1">IF(DIAL3CURRENT,B29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="str">
+        <f ca="1">IF(DIAL3CURRENT,B30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="b">
+        <f ca="1">IF(DIAL3ACTIVE,RANDBETWEEN(1,3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="b">
+        <f ca="1">IF(C31=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <f>[2]!In</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE([2]!In,"w","b"),C33),C33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C34,"W","B"),C34),C34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C35,"p","b"),C35),C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C36,"P","B"),C36),C36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C37,"m","b"),C37),C37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C38,"M","B"),C38),C38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C39,"n","b"),C39),C39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C40,"N","B"),C40),C40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C41,"d","b"),C41),C41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C42,"D","B"),C42),C42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C43,"l","b"),C43),C43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C44,"L","B"),C44),C44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C45,"r","b"),C45),C45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C46,"R","B"),C46),C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <f ca="1">C47</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel RPG/Game/Story.xlsx
+++ b/Excel RPG/Game/Story.xlsx
@@ -352,8 +352,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -384,8 +384,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>

--- a/Excel RPG/Game/Story.xlsx
+++ b/Excel RPG/Game/Story.xlsx
@@ -25,19 +25,24 @@
     <definedName name="D3CHARNAME">Sheet1!$C$28</definedName>
     <definedName name="D3PROMPT">Sheet1!$C$30</definedName>
     <definedName name="D3TEXT">Sheet1!$C$29</definedName>
+    <definedName name="D4CHARNAME">Sheet1!$C$58</definedName>
+    <definedName name="D4PROMPT">Sheet1!$C$60</definedName>
+    <definedName name="D4TEXT">Sheet1!$C$59</definedName>
     <definedName name="DIAL1ACTIVE">Sheet1!$C$13</definedName>
     <definedName name="DIAL1CURRENT">Sheet1!$C$12</definedName>
     <definedName name="DIAL2ACTIVE">Sheet1!$C$20</definedName>
     <definedName name="DIAL2CURRENT">Sheet1!$C$19</definedName>
     <definedName name="DIAL3ACTIVE">Sheet1!$C$27</definedName>
     <definedName name="DIAL3CURRENT">Sheet1!$C$26</definedName>
+    <definedName name="DIAL4ACTIVE">Sheet1!$C$57</definedName>
+    <definedName name="DIAL4CURRENT">Sheet1!$C$56</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="1" iterateDelta="0.1"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="10" iterateDelta="0.1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>[INIT]</t>
   </si>
@@ -78,9 +83,6 @@
     <t>DIALOGUE 3</t>
   </si>
   <si>
-    <t>Theawohnm</t>
-  </si>
-  <si>
     <t>/EVENT/</t>
   </si>
   <si>
@@ -142,6 +144,36 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>DIALOGUE 4</t>
+  </si>
+  <si>
+    <t>/RESPONSE1/</t>
+  </si>
+  <si>
+    <t>/RESPONSE2/</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Choose an option</t>
+  </si>
+  <si>
+    <t>Hodd Bobert</t>
+  </si>
+  <si>
+    <t>useless space</t>
+  </si>
+  <si>
+    <t>haha this is so funny</t>
+  </si>
+  <si>
+    <t>this hurts to make</t>
   </si>
 </sst>
 </file>
@@ -338,6 +370,7 @@
     <definedNames>
       <definedName name="INITACTIVE" refersTo="='Flags'!$B$15"/>
       <definedName name="NORESTART" refersTo="='Flags'!$B$12"/>
+      <definedName name="PLAYERNAME" refersTo="='Data'!$A$2"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -352,7 +385,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -384,8 +423,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -678,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:C52"/>
+  <dimension ref="A10:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="str">
         <f ca="1">IF(DIAL3CURRENT,B28,"")</f>
@@ -850,7 +889,7 @@
       </c>
       <c r="B29" s="1" t="str">
         <f>"Oh, right, I forgot to introduce myself. My name's "&amp;B28&amp;", what’s yours?"</f>
-        <v>Oh, right, I forgot to introduce myself. My name's Theawohnm, what’s yours?</v>
+        <v>Oh, right, I forgot to introduce myself. My name's Hodd Bobert, what’s yours?</v>
       </c>
       <c r="C29" s="5" t="str">
         <f ca="1">IF(DIAL3CURRENT,B29,"")</f>
@@ -871,10 +910,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="b">
         <f ca="1">IF(DIAL3ACTIVE,RANDBETWEEN(1,3))</f>
@@ -883,7 +922,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>6</v>
@@ -895,10 +934,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="C33">
         <f>[2]!In</f>
@@ -907,10 +946,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE([2]!In,"w","b"),C33),C33)</f>
@@ -919,10 +958,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C34,"W","B"),C34),C34)</f>
@@ -931,10 +970,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C35,"p","b"),C35),C35)</f>
@@ -943,10 +982,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C36,"P","B"),C36),C36)</f>
@@ -955,10 +994,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C37,"m","b"),C37),C37)</f>
@@ -967,10 +1006,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C38,"M","B"),C38),C38)</f>
@@ -979,10 +1018,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C39,"n","b"),C39),C39)</f>
@@ -991,10 +1030,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C40,"N","B"),C40),C40)</f>
@@ -1003,10 +1042,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C41,"d","b"),C41),C41)</f>
@@ -1015,10 +1054,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C42,"D","B"),C42),C42)</f>
@@ -1027,10 +1066,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C43,"l","b"),C43),C43)</f>
@@ -1039,10 +1078,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C44,"L","B"),C44),C44)</f>
@@ -1051,10 +1090,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C45,"r","b"),C45),C45)</f>
@@ -1063,25 +1102,144 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <f ca="1">IF(DIAL3ACTIVE,IF($C$31=1,SUBSTITUTE(C46,"R","B"),C46),C46)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <f ca="1">C47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6" t="b">
+        <f ca="1">IFERROR(IF(AND([1]!NORESTART,OR(DIAL4CURRENT,DIAL3ACTIVE),NOT(DIAL4ACTIVE)),TRUE,FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="6" t="b">
+        <f ca="1">IF(AND(DIAL4CURRENT,OR(C62,C64)),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="str">
+        <f>B28</f>
+        <v>Hodd Bobert</v>
+      </c>
+      <c r="C58" s="5" t="str">
+        <f ca="1">IF(DIAL4CURRENT,B58,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="str">
+        <f ca="1">"Alright, "&amp;[1]!PLAYERNAME&amp;", since you're new here, I guess you probably have nothing on you."</f>
+        <v>Alright, , since you're new here, I guess you probably have nothing on you.</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <f ca="1">IF(DIAL4CURRENT,B59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="5" t="str">
+        <f ca="1">IF(DIAL4CURRENT,B60,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <f ca="1">IF(DIAL4CURRENT,"&gt;"&amp;B61,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="6" t="b">
+        <f ca="1">IF(AND(DIAL4CURRENT,[2]!In=B61),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <f ca="1">IF(DIAL4CURRENT,"&gt;"&amp;B63,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="6" t="b">
+        <f ca="1">IF(AND(DIAL4CURRENT,[2]!In=B63),TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
